--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/observations-summary.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/observations-summary.xlsx
@@ -59,7 +59,7 @@
     <t/>
   </si>
   <si>
-    <t>JP Core PhysicalExamCodes CodeSystem#physical-findings</t>
+    <t>JP Core Physical Exam Codes#physical-findings</t>
   </si>
   <si>
     <t>dateTime, Period</t>
